--- a/biology/Botanique/Dureza/Dureza.xlsx
+++ b/biology/Botanique/Dureza/Dureza.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Dureza est un cépage de cuve français de raisins noirs.
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cépage est un cépage de l'Ardèche. De là, il se serait répandu dans l'Isère et le nord de la Drôme.
 Non classé et non multiplié, il est en voie de disparition. Il a été souvent confondu avec le Peloursin et le Durif.
@@ -545,7 +559,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau cotonneux, blanc à liseré carminé.
 Jeunes feuilles duveteuses, légèrement orangées.
@@ -577,7 +593,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de deuxième époque tardive : 20 jours après le chasselas.
 </t>
@@ -608,7 +626,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes sont moyennes et les baies sont de grande taille. La grappe est cylindrique et compacte. Le cépage est vigoureux et productif.
 Il donne un vin ordinaire mais bien coloré.
@@ -640,7 +660,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La  dureza est connue sous les noms de duré, duret, durezza et petit duret.
 </t>
